--- a/docs/Milestone 3 Burndown.xlsx
+++ b/docs/Milestone 3 Burndown.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cheston\School Stuff\cs3450-Tools-Co-op\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46906BDB-07F1-4D1E-B11E-9F1F7758840E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="13395" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="255" windowWidth="13980" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,12 +65,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -98,7 +107,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -588,15 +596,26 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>59</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B20-412F-9E80-1D4A04BB3C93}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -881,6 +900,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9B20-412F-9E80-1D4A04BB3C93}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -890,7 +914,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="102032896"/>
         <c:axId val="35332096"/>
@@ -959,7 +982,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1020,7 +1049,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1053,9 +1082,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1088,6 +1134,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1263,11 +1326,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,7 +1879,7 @@
         <v>43914</v>
       </c>
       <c r="B68">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1831,10 +1894,16 @@
       <c r="A70" s="1">
         <v>43916</v>
       </c>
+      <c r="B70">
+        <v>52</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43917</v>
+      </c>
+      <c r="B71">
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1919,7 +1988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1931,7 +2000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
